--- a/sources/GFED4.1s_2024.xlsx
+++ b/sources/GFED4.1s_2024.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\GHG-Emissions-Assessment\sources\GFED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamw\ownCloud\Projects\UNEP Gap Report 2024\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="64">
   <si>
     <t>Region</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>ning:</t>
+  </si>
+  <si>
+    <t>agri_burning</t>
   </si>
 </sst>
 </file>
@@ -533,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD143"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10308,7 +10311,7 @@
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B143">
         <v>194</v>
@@ -10407,8 +10410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="Q29" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20239,7 +20242,7 @@
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="B143">
         <v>33</v>
